--- a/updatedata.xlsx
+++ b/updatedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\metha.chi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8345B4-3089-4ED0-A8DE-349364BAAD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547B3114-1029-4EE3-B6AD-D169EA3D9A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="15" windowWidth="24240" windowHeight="13020" xr2:uid="{9AC45912-1E26-4BD5-96FA-95ACE752B055}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9AC45912-1E26-4BD5-96FA-95ACE752B055}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
   <si>
     <t>เปิดตัว</t>
   </si>
@@ -116,9 +116,6 @@
     <t>ปทุมธานี</t>
   </si>
   <si>
-    <t>PRIMA VILLA</t>
-  </si>
-  <si>
     <t>แท่่งยาว</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>ESSENCE</t>
   </si>
   <si>
-    <t>GRAND</t>
-  </si>
-  <si>
     <t>ตัวY หน้าแคบ</t>
   </si>
   <si>
@@ -209,9 +203,6 @@
     <t>ตัว T</t>
   </si>
   <si>
-    <t>GRAND ESSENCE</t>
-  </si>
-  <si>
     <t>สี่เหลี่ยมคางหมูโค้งมน</t>
   </si>
   <si>
@@ -324,6 +315,21 @@
   </si>
   <si>
     <t>ศุภาลัย ปาล์มสปริงส์ พระราม 2</t>
+  </si>
+  <si>
+    <t>MONTARA</t>
+  </si>
+  <si>
+    <t>GRANDVILLE</t>
+  </si>
+  <si>
+    <t>PARKVILLE</t>
+  </si>
+  <si>
+    <t>PRIMAVILLA</t>
+  </si>
+  <si>
+    <t>GRANDESSENCE</t>
   </si>
 </sst>
 </file>
@@ -346,7 +352,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +368,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -420,6 +438,15 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -759,7 +786,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -770,7 +797,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="50.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -829,7 +856,7 @@
     </row>
     <row r="2" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2">
         <v>68</v>
@@ -837,7 +864,7 @@
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="4">
@@ -888,7 +915,7 @@
     </row>
     <row r="3" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2">
         <v>68</v>
@@ -896,7 +923,7 @@
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="4">
@@ -946,8 +973,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>64</v>
+      <c r="A4" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B4" s="2">
         <v>68</v>
@@ -955,8 +982,8 @@
       <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
+      <c r="D4" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="E4" s="4">
         <v>98548</v>
@@ -1005,8 +1032,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>65</v>
+      <c r="A5" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="B5" s="2">
         <v>68</v>
@@ -1014,8 +1041,8 @@
       <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
+      <c r="D5" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="E5" s="4">
         <v>158180</v>
@@ -1060,12 +1087,12 @@
         <v>47</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>66</v>
+      <c r="A6" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B6" s="2">
         <v>68</v>
@@ -1073,7 +1100,7 @@
       <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="4">
@@ -1119,21 +1146,21 @@
         <v>30</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>67</v>
+      <c r="A7" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="B7" s="2">
         <v>68</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E7" s="4">
         <v>62558</v>
@@ -1178,21 +1205,21 @@
         <v>13</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>68</v>
+      <c r="A8" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>67</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E8" s="4">
         <v>112128</v>
@@ -1237,21 +1264,21 @@
         <v>24</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>69</v>
+      <c r="A9" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="B9" s="2">
         <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="E9" s="4">
         <v>54080</v>
@@ -1296,12 +1323,12 @@
         <v>10</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>70</v>
+      <c r="A10" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="B10" s="2">
         <v>67</v>
@@ -1309,8 +1336,8 @@
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
+      <c r="D10" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="E10" s="4">
         <v>64692</v>
@@ -1355,21 +1382,21 @@
         <v>19</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2">
         <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="E11" s="4">
         <v>80660</v>
@@ -1414,12 +1441,12 @@
         <v>10</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2">
         <v>67</v>
@@ -1427,8 +1454,8 @@
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
+      <c r="D12" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="E12" s="4">
         <v>106044</v>
@@ -1473,12 +1500,12 @@
         <v>32</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2">
         <v>67</v>
@@ -1486,8 +1513,8 @@
       <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>40</v>
+      <c r="D13" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="E13" s="4">
         <v>13904</v>
@@ -1532,12 +1559,12 @@
         <v>7</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2">
         <v>67</v>
@@ -1545,8 +1572,8 @@
       <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
+      <c r="D14" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="E14" s="4">
         <v>113984</v>
@@ -1596,7 +1623,7 @@
     </row>
     <row r="15" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2">
         <v>67</v>
@@ -1604,8 +1631,8 @@
       <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>41</v>
+      <c r="D15" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="E15" s="4">
         <v>68020</v>
@@ -1650,21 +1677,21 @@
         <v>19</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2">
         <v>67</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="E16" s="4">
         <v>46492</v>
@@ -1709,21 +1736,21 @@
         <v>6</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2">
         <v>67</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="E17" s="4">
         <v>36548</v>
@@ -1773,16 +1800,16 @@
     </row>
     <row r="18" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B18" s="2">
         <v>67</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="E18" s="4">
         <v>25000</v>
@@ -1827,21 +1854,21 @@
         <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2">
         <v>68</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E19" s="4">
         <v>8644</v>
@@ -1884,21 +1911,21 @@
         <v>0</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B20" s="2">
         <v>67</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="E20" s="4">
         <v>33140</v>
@@ -1943,21 +1970,21 @@
         <v>7</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B21" s="2">
         <v>67</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="E21" s="4">
         <v>16000</v>
@@ -2002,21 +2029,21 @@
         <v>0</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B22" s="2">
         <v>67</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="E22" s="4">
         <v>159593</v>
@@ -2061,21 +2088,21 @@
         <v>19</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B23" s="2">
         <v>67</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="E23" s="4">
         <v>151932</v>
@@ -2120,21 +2147,21 @@
         <v>17</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B24" s="2">
         <v>67</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="E24" s="4">
         <v>150061</v>
@@ -2179,20 +2206,20 @@
         <v>34</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B25" s="2">
         <v>67</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="4">
@@ -2238,12 +2265,12 @@
         <v>25</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B26" s="2">
         <v>67</v>
@@ -2251,8 +2278,8 @@
       <c r="C26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>30</v>
+      <c r="D26" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="E26" s="4">
         <v>100044</v>
@@ -2297,21 +2324,21 @@
         <v>19</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B27" s="2">
         <v>67</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="E27" s="4">
         <v>46708</v>
@@ -2356,12 +2383,12 @@
         <v>13</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B28" s="2">
         <v>67</v>
@@ -2369,7 +2396,7 @@
       <c r="C28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="4">
@@ -2415,12 +2442,12 @@
         <v>2</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B29" s="2">
         <v>67</v>
@@ -2428,8 +2455,8 @@
       <c r="C29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>30</v>
+      <c r="D29" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="E29" s="4">
         <v>17828</v>
@@ -2474,12 +2501,12 @@
         <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B30" s="2">
         <v>67</v>
@@ -2487,8 +2514,8 @@
       <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>35</v>
+      <c r="D30" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="E30" s="4">
         <v>86484</v>
@@ -2533,12 +2560,12 @@
         <v>23</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B31" s="2">
         <v>67</v>
@@ -2546,8 +2573,8 @@
       <c r="C31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>35</v>
+      <c r="D31" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="E31" s="4">
         <v>149636</v>
@@ -2592,21 +2619,21 @@
         <v>19</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B32" s="2">
         <v>67</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="E32" s="5">
         <v>7028</v>
@@ -2651,21 +2678,21 @@
         <v>0</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B33" s="2">
         <v>66</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="E33" s="4">
         <v>69520</v>
@@ -2710,12 +2737,12 @@
         <v>10</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B34" s="2">
         <v>66</v>
@@ -2723,8 +2750,8 @@
       <c r="C34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>60</v>
+      <c r="D34" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E34" s="5">
         <v>144576</v>
@@ -2769,20 +2796,20 @@
         <v>35</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B35" s="2">
         <v>66</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E35" s="4">
@@ -2828,7 +2855,7 @@
         <v>31</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
